--- a/data/run/S0/Watage.xlsx
+++ b/data/run/S0/Watage.xlsx
@@ -8318,16 +8318,16 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00667157163564096</v>
+        <v>0.00666794872987283</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0149183101546154</v>
+        <v>0.0149117567252455</v>
       </c>
       <c r="I107" t="n">
-        <v>0.022555432348452</v>
+        <v>0.0225600642869597</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0203005568860278</v>
+        <v>0.0321462675276703</v>
       </c>
     </row>
     <row r="108">
@@ -8350,16 +8350,16 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00531025808134097</v>
+        <v>0.00534562867992784</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0118742751161191</v>
+        <v>0.0119546081782935</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0179530661511063</v>
+        <v>0.0180861808569556</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0161582910515199</v>
+        <v>0.0257713453732307</v>
       </c>
     </row>
     <row r="109">
@@ -8382,16 +8382,16 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00722388797732029</v>
+        <v>0.00720389473644178</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016153345456435</v>
+        <v>0.0161103107021258</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0244227185832487</v>
+        <v>0.0243733620269928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.021981169779914</v>
+        <v>0.0347300701940535</v>
       </c>
     </row>
     <row r="110">
@@ -8414,16 +8414,16 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.00758211225905405</v>
+        <v>0.00754677891234515</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0169543712464107</v>
+        <v>0.016877114050973</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0256338130589572</v>
+        <v>0.0255334622864183</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0230711906635156</v>
+        <v>0.0363831192644841</v>
       </c>
     </row>
     <row r="111">
@@ -8446,16 +8446,16 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00625741252328824</v>
+        <v>0.00626497586508583</v>
       </c>
       <c r="H111" t="n">
-        <v>0.013992208415944</v>
+        <v>0.0140105750320423</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0211552318634175</v>
+        <v>0.0211966624217404</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190403349953914</v>
+        <v>0.0302035301068201</v>
       </c>
     </row>
     <row r="112">
@@ -8478,16 +8478,16 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00647316237489268</v>
+        <v>0.00647490232551526</v>
       </c>
       <c r="H112" t="n">
-        <v>0.014474646944349</v>
+        <v>0.0144800405955808</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0218846448784941</v>
+        <v>0.02190691899909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0196968283038421</v>
+        <v>0.0312155883021491</v>
       </c>
     </row>
     <row r="113">
@@ -8510,16 +8510,16 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0065174116837654</v>
+        <v>0.00651866656327227</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0145735928824192</v>
+        <v>0.014577912023982</v>
       </c>
       <c r="I113" t="n">
-        <v>0.022034244155434</v>
+        <v>0.0220549891263909</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0198314720820996</v>
+        <v>0.0314265762614264</v>
       </c>
     </row>
     <row r="114">
@@ -8542,16 +8542,16 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.00596898349030647</v>
+        <v>0.00598401718579155</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0133472518739755</v>
+        <v>0.0133822577420918</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0201801030787702</v>
+        <v>0.0202460783480415</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0181626902197064</v>
+        <v>0.0288490246607371</v>
       </c>
     </row>
     <row r="115">
@@ -8574,16 +8574,16 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.00599095618176181</v>
+        <v>0.00600543379624916</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0133963850383879</v>
+        <v>0.0134301524242439</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0202543889566265</v>
+        <v>0.0203185384295907</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0182295497090725</v>
+        <v>0.0289522744182258</v>
       </c>
     </row>
     <row r="116">
@@ -8606,16 +8606,16 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.00605298387681116</v>
+        <v>0.00606825036302494</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0135350852492915</v>
+        <v>0.0135706312131522</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0204640938891107</v>
+        <v>0.0205310694255773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0184182903567981</v>
+        <v>0.0292551139034332</v>
       </c>
     </row>
     <row r="117">
@@ -8638,16 +8638,16 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0061577585446484</v>
+        <v>0.00616794436683514</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0137693720225598</v>
+        <v>0.0137935802477066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0208183189594988</v>
+        <v>0.0208683700297206</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0187371034072766</v>
+        <v>0.0297357399920877</v>
       </c>
     </row>
     <row r="118">
@@ -8670,16 +8670,16 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00644619427057485</v>
+        <v>0.00644867286329013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0144143435306307</v>
+        <v>0.0144213827720762</v>
       </c>
       <c r="I118" t="n">
-        <v>0.021793470371837</v>
+        <v>0.0218181753122407</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0196147685485534</v>
+        <v>0.0310891357237095</v>
       </c>
     </row>
     <row r="119">
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0063802095159529</v>
+        <v>0.00638448254823254</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0142667949335853</v>
+        <v>0.0142778318239461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0215703873038304</v>
+        <v>0.0216009964326533</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0194139871827868</v>
+        <v>0.0307796733801731</v>
       </c>
     </row>
     <row r="120">
@@ -8734,16 +8734,16 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00673429140318136</v>
+        <v>0.00672872448380739</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0150585579097312</v>
+        <v>0.015047671576151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0227674770585935</v>
+        <v>0.022765690480471</v>
       </c>
       <c r="J120" t="n">
-        <v>0.020491403402916</v>
+        <v>0.0324392682276343</v>
       </c>
     </row>
     <row r="121">
@@ -8766,16 +8766,16 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.00636715211433621</v>
+        <v>0.0063730543989205</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0142375972605677</v>
+        <v>0.0142522746714747</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0215262424823556</v>
+        <v>0.0215623309009276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0193742555365151</v>
+        <v>0.0307245781237436</v>
       </c>
     </row>
     <row r="122">
@@ -8798,16 +8798,16 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00664053380653635</v>
+        <v>0.00663762233691475</v>
       </c>
       <c r="H122" t="n">
-        <v>0.014848906423921</v>
+        <v>0.0148439367985387</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0224504988046267</v>
+        <v>0.0224574592126794</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0202061135899398</v>
+        <v>0.0320000635928962</v>
       </c>
     </row>
     <row r="123">
@@ -8830,16 +8830,16 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00587901104892184</v>
+        <v>0.00589925030611245</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0131460643788472</v>
+        <v>0.0131926907344047</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0198759217815127</v>
+        <v>0.0199592815635374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0178889180466332</v>
+        <v>0.0284403624316108</v>
       </c>
     </row>
     <row r="124">
@@ -8862,16 +8862,16 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0.00543193031542757</v>
+        <v>0.00546421439551116</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0121463465596171</v>
+        <v>0.0122198053796375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0183644189768729</v>
+        <v>0.0184873989039825</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0165285207731539</v>
+        <v>0.0263430486499855</v>
       </c>
     </row>
     <row r="125">
@@ -8894,16 +8894,16 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.00626013305688042</v>
+        <v>0.00626762420202801</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0139982918047062</v>
+        <v>0.0140164975965083</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0211644295179944</v>
+        <v>0.021205622696345</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0190486131568149</v>
+        <v>0.0302162977736537</v>
       </c>
     </row>
     <row r="126">
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.00695266475840527</v>
+        <v>0.00694077758370385</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0155468628580482</v>
+        <v>0.0155218930146458</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0235057596866544</v>
+        <v>0.023483142242582</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0211558796256448</v>
+        <v>0.0334615789794857</v>
       </c>
     </row>
     <row r="127">
@@ -8958,16 +8958,16 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00653986632729814</v>
+        <v>0.00622612701847907</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0146238037405089</v>
+        <v>0.0139236960572444</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0221101594300906</v>
+        <v>0.0210652228272822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0198997980768258</v>
+        <v>0.0300162393121913</v>
       </c>
     </row>
     <row r="128">
@@ -8990,16 +8990,16 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.00627010649840049</v>
+        <v>0.0062789529881749</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0140205934304746</v>
+        <v>0.0140418325398107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0211981480025994</v>
+        <v>0.0212439520468126</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0190789607912233</v>
+        <v>0.0302709139989721</v>
       </c>
     </row>
     <row r="129">
@@ -9022,16 +9022,16 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.00662226931795737</v>
+        <v>0.00661987101204765</v>
       </c>
       <c r="H129" t="n">
-        <v>0.014808065176863</v>
+        <v>0.0148042389171223</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0223887497207494</v>
+        <v>0.0223974001080875</v>
       </c>
       <c r="J129" t="n">
-        <v>0.020150537586317</v>
+        <v>0.0319144842248978</v>
       </c>
     </row>
     <row r="130">
@@ -9054,16 +9054,16 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00624265826952852</v>
+        <v>0.00624804294046252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.013959216409606</v>
+        <v>0.013972707366459</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0211053502776826</v>
+        <v>0.0211393722589717</v>
       </c>
       <c r="J130" t="n">
-        <v>0.018995440091444</v>
+        <v>0.0301218962570384</v>
       </c>
     </row>
     <row r="131">
@@ -9086,16 +9086,16 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.00619881814623888</v>
+        <v>0.00620979823994383</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0138611854519592</v>
+        <v>0.0138871794637609</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0209571343865837</v>
+        <v>0.0210099767076124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0188620414013997</v>
+        <v>0.0299375180585556</v>
       </c>
     </row>
     <row r="132">
@@ -9118,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00674982499000861</v>
+        <v>0.00674489502792748</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0150932925837719</v>
+        <v>0.0150838343047204</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0228199934349356</v>
+        <v>0.0228204012363096</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0205386696964151</v>
+        <v>0.032517226631097</v>
       </c>
     </row>
     <row r="133">
@@ -9150,16 +9150,16 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00658746572802333</v>
+        <v>0.00658592348231955</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0147302408233993</v>
+        <v>0.0147283209211634</v>
       </c>
       <c r="I133" t="n">
-        <v>0.022271084789439</v>
+        <v>0.0222825434281586</v>
       </c>
       <c r="J133" t="n">
-        <v>0.020044635664569</v>
+        <v>0.031750822742671</v>
       </c>
     </row>
     <row r="134">
@@ -9182,16 +9182,16 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00631489987401918</v>
+        <v>0.00631886410202381</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0141207559569147</v>
+        <v>0.0141310870983652</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0213495866753146</v>
+        <v>0.0213789856726955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0192152600801355</v>
+        <v>0.0304633259977876</v>
       </c>
     </row>
     <row r="135">
@@ -9214,16 +9214,16 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00559290490406598</v>
+        <v>0.00620459859177297</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0125063020500881</v>
+        <v>0.0138755513166767</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0189086462807448</v>
+        <v>0.0209923844312233</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0170183414589427</v>
+        <v>0.0299124504871147</v>
       </c>
     </row>
     <row r="136">
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00724955397794806</v>
+        <v>0.00723371562067772</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0162107372343705</v>
+        <v>0.0161770001427728</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0245094909020412</v>
+        <v>0.024474256783793</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0220592674357943</v>
+        <v>0.0348738370647053</v>
       </c>
     </row>
     <row r="137">
@@ -9278,16 +9278,16 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00658040941452746</v>
+        <v>0.00657901260492721</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147144621914624</v>
+        <v>0.0147128658949466</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0222472286112582</v>
+        <v>0.0222591614489973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0200231643979242</v>
+        <v>0.0317175053129028</v>
       </c>
     </row>
     <row r="138">
@@ -9310,16 +9310,16 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00727506724737916</v>
+        <v>0.00699471259116748</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0162677874898753</v>
+        <v>0.0156425096754592</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0245957468630155</v>
+        <v>0.0236656237350155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0221369003543509</v>
+        <v>0.0337216003517655</v>
       </c>
     </row>
     <row r="139">
@@ -9342,16 +9342,16 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00682870628080553</v>
+        <v>0.0068221021577917</v>
       </c>
       <c r="H139" t="n">
-        <v>0.015269679142408</v>
+        <v>0.0152564951910935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0230866774661201</v>
+        <v>0.0230816206733075</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0207786932198847</v>
+        <v>0.0328894432080691</v>
       </c>
     </row>
     <row r="140">
@@ -9374,16 +9374,16 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0059127075373472</v>
+        <v>0.00592436425184492</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0132214131411636</v>
+        <v>0.0132488538910733</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0199898437936812</v>
+        <v>0.0200442510576317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0179914512303412</v>
+        <v>0.0285614370905347</v>
       </c>
     </row>
     <row r="141">
@@ -9406,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00663497669530849</v>
+        <v>0.00663245128984739</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0148364801601576</v>
+        <v>0.0148323726130587</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0224317111705881</v>
+        <v>0.022439963704091</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0201892041630814</v>
+        <v>0.0319751339077472</v>
       </c>
     </row>
   </sheetData>
@@ -12844,16 +12844,16 @@
         <v>-1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00667157163564096</v>
+        <v>0.00666794872987283</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0149183101546154</v>
+        <v>0.0149117567252455</v>
       </c>
       <c r="I107" t="n">
-        <v>0.022555432348452</v>
+        <v>0.0225600642869597</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0203005568860278</v>
+        <v>0.0321462675276703</v>
       </c>
     </row>
     <row r="108">
@@ -12876,16 +12876,16 @@
         <v>-1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00531025808134097</v>
+        <v>0.00534562867992784</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0118742751161191</v>
+        <v>0.0119546081782935</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0179530661511063</v>
+        <v>0.0180861808569556</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0161582910515199</v>
+        <v>0.0257713453732307</v>
       </c>
     </row>
     <row r="109">
@@ -12908,16 +12908,16 @@
         <v>-1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00722388797732029</v>
+        <v>0.00720389473644178</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016153345456435</v>
+        <v>0.0161103107021258</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0244227185832487</v>
+        <v>0.0243733620269928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.021981169779914</v>
+        <v>0.0347300701940535</v>
       </c>
     </row>
     <row r="110">
@@ -12940,16 +12940,16 @@
         <v>-1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.00758211225905405</v>
+        <v>0.00754677891234515</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0169543712464107</v>
+        <v>0.016877114050973</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0256338130589572</v>
+        <v>0.0255334622864183</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0230711906635156</v>
+        <v>0.0363831192644841</v>
       </c>
     </row>
     <row r="111">
@@ -12972,16 +12972,16 @@
         <v>-1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00625741252328824</v>
+        <v>0.00626497586508583</v>
       </c>
       <c r="H111" t="n">
-        <v>0.013992208415944</v>
+        <v>0.0140105750320423</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0211552318634175</v>
+        <v>0.0211966624217404</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190403349953914</v>
+        <v>0.0302035301068201</v>
       </c>
     </row>
     <row r="112">
@@ -13004,16 +13004,16 @@
         <v>-1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00647316237489268</v>
+        <v>0.00647490232551526</v>
       </c>
       <c r="H112" t="n">
-        <v>0.014474646944349</v>
+        <v>0.0144800405955808</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0218846448784941</v>
+        <v>0.02190691899909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0196968283038421</v>
+        <v>0.0312155883021491</v>
       </c>
     </row>
     <row r="113">
@@ -13036,16 +13036,16 @@
         <v>-1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0065174116837654</v>
+        <v>0.00651866656327227</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0145735928824192</v>
+        <v>0.014577912023982</v>
       </c>
       <c r="I113" t="n">
-        <v>0.022034244155434</v>
+        <v>0.0220549891263909</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0198314720820996</v>
+        <v>0.0314265762614264</v>
       </c>
     </row>
     <row r="114">
@@ -13068,16 +13068,16 @@
         <v>-1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.00596898349030647</v>
+        <v>0.00598401718579155</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0133472518739755</v>
+        <v>0.0133822577420918</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0201801030787702</v>
+        <v>0.0202460783480415</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0181626902197064</v>
+        <v>0.0288490246607371</v>
       </c>
     </row>
     <row r="115">
@@ -13100,16 +13100,16 @@
         <v>-1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.00599095618176181</v>
+        <v>0.00600543379624916</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0133963850383879</v>
+        <v>0.0134301524242439</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0202543889566265</v>
+        <v>0.0203185384295907</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0182295497090725</v>
+        <v>0.0289522744182258</v>
       </c>
     </row>
     <row r="116">
@@ -13132,16 +13132,16 @@
         <v>-1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.00605298387681116</v>
+        <v>0.00606825036302494</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0135350852492915</v>
+        <v>0.0135706312131522</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0204640938891107</v>
+        <v>0.0205310694255773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0184182903567981</v>
+        <v>0.0292551139034332</v>
       </c>
     </row>
     <row r="117">
@@ -13164,16 +13164,16 @@
         <v>-1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0061577585446484</v>
+        <v>0.00616794436683514</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0137693720225598</v>
+        <v>0.0137935802477066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0208183189594988</v>
+        <v>0.0208683700297206</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0187371034072766</v>
+        <v>0.0297357399920877</v>
       </c>
     </row>
     <row r="118">
@@ -13196,16 +13196,16 @@
         <v>-1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00644619427057485</v>
+        <v>0.00644867286329013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0144143435306307</v>
+        <v>0.0144213827720762</v>
       </c>
       <c r="I118" t="n">
-        <v>0.021793470371837</v>
+        <v>0.0218181753122407</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0196147685485534</v>
+        <v>0.0310891357237095</v>
       </c>
     </row>
     <row r="119">
@@ -13228,16 +13228,16 @@
         <v>-1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0063802095159529</v>
+        <v>0.00638448254823254</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0142667949335853</v>
+        <v>0.0142778318239461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0215703873038304</v>
+        <v>0.0216009964326533</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0194139871827868</v>
+        <v>0.0307796733801731</v>
       </c>
     </row>
     <row r="120">
@@ -13260,16 +13260,16 @@
         <v>-1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00673429140318136</v>
+        <v>0.00672872448380739</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0150585579097312</v>
+        <v>0.015047671576151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0227674770585935</v>
+        <v>0.022765690480471</v>
       </c>
       <c r="J120" t="n">
-        <v>0.020491403402916</v>
+        <v>0.0324392682276343</v>
       </c>
     </row>
     <row r="121">
@@ -13292,16 +13292,16 @@
         <v>-1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.00636715211433621</v>
+        <v>0.0063730543989205</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0142375972605677</v>
+        <v>0.0142522746714747</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0215262424823556</v>
+        <v>0.0215623309009276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0193742555365151</v>
+        <v>0.0307245781237436</v>
       </c>
     </row>
     <row r="122">
@@ -13324,16 +13324,16 @@
         <v>-1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00664053380653635</v>
+        <v>0.00663762233691475</v>
       </c>
       <c r="H122" t="n">
-        <v>0.014848906423921</v>
+        <v>0.0148439367985387</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0224504988046267</v>
+        <v>0.0224574592126794</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0202061135899398</v>
+        <v>0.0320000635928962</v>
       </c>
     </row>
     <row r="123">
@@ -13356,16 +13356,16 @@
         <v>-1</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00587901104892184</v>
+        <v>0.00589925030611245</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0131460643788472</v>
+        <v>0.0131926907344047</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0198759217815127</v>
+        <v>0.0199592815635374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0178889180466332</v>
+        <v>0.0284403624316108</v>
       </c>
     </row>
     <row r="124">
@@ -13388,16 +13388,16 @@
         <v>-1</v>
       </c>
       <c r="G124" t="n">
-        <v>0.00543193031542757</v>
+        <v>0.00546421439551116</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0121463465596171</v>
+        <v>0.0122198053796375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0183644189768729</v>
+        <v>0.0184873989039825</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0165285207731539</v>
+        <v>0.0263430486499855</v>
       </c>
     </row>
     <row r="125">
@@ -13420,16 +13420,16 @@
         <v>-1</v>
       </c>
       <c r="G125" t="n">
-        <v>0.00626013305688042</v>
+        <v>0.00626762420202801</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0139982918047062</v>
+        <v>0.0140164975965083</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0211644295179944</v>
+        <v>0.021205622696345</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0190486131568149</v>
+        <v>0.0302162977736537</v>
       </c>
     </row>
     <row r="126">
@@ -13452,16 +13452,16 @@
         <v>-1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.00695266475840527</v>
+        <v>0.00694077758370385</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0155468628580482</v>
+        <v>0.0155218930146458</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0235057596866544</v>
+        <v>0.023483142242582</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0211558796256448</v>
+        <v>0.0334615789794857</v>
       </c>
     </row>
     <row r="127">
@@ -13484,16 +13484,16 @@
         <v>-1</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00653986632729814</v>
+        <v>0.00622612701847907</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0146238037405089</v>
+        <v>0.0139236960572444</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0221101594300906</v>
+        <v>0.0210652228272822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0198997980768258</v>
+        <v>0.0300162393121913</v>
       </c>
     </row>
     <row r="128">
@@ -13516,16 +13516,16 @@
         <v>-1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.00627010649840049</v>
+        <v>0.0062789529881749</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0140205934304746</v>
+        <v>0.0140418325398107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0211981480025994</v>
+        <v>0.0212439520468126</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0190789607912233</v>
+        <v>0.0302709139989721</v>
       </c>
     </row>
     <row r="129">
@@ -13548,16 +13548,16 @@
         <v>-1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.00662226931795737</v>
+        <v>0.00661987101204765</v>
       </c>
       <c r="H129" t="n">
-        <v>0.014808065176863</v>
+        <v>0.0148042389171223</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0223887497207494</v>
+        <v>0.0223974001080875</v>
       </c>
       <c r="J129" t="n">
-        <v>0.020150537586317</v>
+        <v>0.0319144842248978</v>
       </c>
     </row>
     <row r="130">
@@ -13580,16 +13580,16 @@
         <v>-1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00624265826952852</v>
+        <v>0.00624804294046252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.013959216409606</v>
+        <v>0.013972707366459</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0211053502776826</v>
+        <v>0.0211393722589717</v>
       </c>
       <c r="J130" t="n">
-        <v>0.018995440091444</v>
+        <v>0.0301218962570384</v>
       </c>
     </row>
     <row r="131">
@@ -13612,16 +13612,16 @@
         <v>-1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.00619881814623888</v>
+        <v>0.00620979823994383</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0138611854519592</v>
+        <v>0.0138871794637609</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0209571343865837</v>
+        <v>0.0210099767076124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0188620414013997</v>
+        <v>0.0299375180585556</v>
       </c>
     </row>
     <row r="132">
@@ -13644,16 +13644,16 @@
         <v>-1</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00674982499000861</v>
+        <v>0.00674489502792748</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0150932925837719</v>
+        <v>0.0150838343047204</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0228199934349356</v>
+        <v>0.0228204012363096</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0205386696964151</v>
+        <v>0.032517226631097</v>
       </c>
     </row>
     <row r="133">
@@ -13676,16 +13676,16 @@
         <v>-1</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00658746572802333</v>
+        <v>0.00658592348231955</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0147302408233993</v>
+        <v>0.0147283209211634</v>
       </c>
       <c r="I133" t="n">
-        <v>0.022271084789439</v>
+        <v>0.0222825434281586</v>
       </c>
       <c r="J133" t="n">
-        <v>0.020044635664569</v>
+        <v>0.031750822742671</v>
       </c>
     </row>
     <row r="134">
@@ -13708,16 +13708,16 @@
         <v>-1</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00631489987401918</v>
+        <v>0.00631886410202381</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0141207559569147</v>
+        <v>0.0141310870983652</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0213495866753146</v>
+        <v>0.0213789856726955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0192152600801355</v>
+        <v>0.0304633259977876</v>
       </c>
     </row>
     <row r="135">
@@ -13740,16 +13740,16 @@
         <v>-1</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00559290490406598</v>
+        <v>0.00620459859177297</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0125063020500881</v>
+        <v>0.0138755513166767</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0189086462807448</v>
+        <v>0.0209923844312233</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0170183414589427</v>
+        <v>0.0299124504871147</v>
       </c>
     </row>
     <row r="136">
@@ -13772,16 +13772,16 @@
         <v>-1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00724955397794806</v>
+        <v>0.00723371562067772</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0162107372343705</v>
+        <v>0.0161770001427728</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0245094909020412</v>
+        <v>0.024474256783793</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0220592674357943</v>
+        <v>0.0348738370647053</v>
       </c>
     </row>
     <row r="137">
@@ -13804,16 +13804,16 @@
         <v>-1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00658040941452746</v>
+        <v>0.00657901260492721</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147144621914624</v>
+        <v>0.0147128658949466</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0222472286112582</v>
+        <v>0.0222591614489973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0200231643979242</v>
+        <v>0.0317175053129028</v>
       </c>
     </row>
     <row r="138">
@@ -13836,16 +13836,16 @@
         <v>-1</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00727506724737916</v>
+        <v>0.00699471259116748</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0162677874898753</v>
+        <v>0.0156425096754592</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0245957468630155</v>
+        <v>0.0236656237350155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0221369003543509</v>
+        <v>0.0337216003517655</v>
       </c>
     </row>
     <row r="139">
@@ -13868,16 +13868,16 @@
         <v>-1</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00682870628080553</v>
+        <v>0.0068221021577917</v>
       </c>
       <c r="H139" t="n">
-        <v>0.015269679142408</v>
+        <v>0.0152564951910935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0230866774661201</v>
+        <v>0.0230816206733075</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0207786932198847</v>
+        <v>0.0328894432080691</v>
       </c>
     </row>
     <row r="140">
@@ -13900,16 +13900,16 @@
         <v>-1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0059127075373472</v>
+        <v>0.00592436425184492</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0132214131411636</v>
+        <v>0.0132488538910733</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0199898437936812</v>
+        <v>0.0200442510576317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0179914512303412</v>
+        <v>0.0285614370905347</v>
       </c>
     </row>
     <row r="141">
@@ -13932,16 +13932,16 @@
         <v>-1</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00663497669530849</v>
+        <v>0.00663245128984739</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0148364801601576</v>
+        <v>0.0148323726130587</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0224317111705881</v>
+        <v>0.022439963704091</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0201892041630814</v>
+        <v>0.0319751339077472</v>
       </c>
     </row>
   </sheetData>
@@ -17370,16 +17370,16 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00667157163564096</v>
+        <v>0.00666794872987283</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0149183101546154</v>
+        <v>0.0149117567252455</v>
       </c>
       <c r="I107" t="n">
-        <v>0.022555432348452</v>
+        <v>0.0225600642869597</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0203005568860278</v>
+        <v>0.0321462675276703</v>
       </c>
     </row>
     <row r="108">
@@ -17402,16 +17402,16 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00531025808134097</v>
+        <v>0.00534562867992784</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0118742751161191</v>
+        <v>0.0119546081782935</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0179530661511063</v>
+        <v>0.0180861808569556</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0161582910515199</v>
+        <v>0.0257713453732307</v>
       </c>
     </row>
     <row r="109">
@@ -17434,16 +17434,16 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00722388797732029</v>
+        <v>0.00720389473644178</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016153345456435</v>
+        <v>0.0161103107021258</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0244227185832487</v>
+        <v>0.0243733620269928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.021981169779914</v>
+        <v>0.0347300701940535</v>
       </c>
     </row>
     <row r="110">
@@ -17466,16 +17466,16 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.00758211225905405</v>
+        <v>0.00754677891234515</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0169543712464107</v>
+        <v>0.016877114050973</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0256338130589572</v>
+        <v>0.0255334622864183</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0230711906635156</v>
+        <v>0.0363831192644841</v>
       </c>
     </row>
     <row r="111">
@@ -17498,16 +17498,16 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00625741252328824</v>
+        <v>0.00626497586508583</v>
       </c>
       <c r="H111" t="n">
-        <v>0.013992208415944</v>
+        <v>0.0140105750320423</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0211552318634175</v>
+        <v>0.0211966624217404</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190403349953914</v>
+        <v>0.0302035301068201</v>
       </c>
     </row>
     <row r="112">
@@ -17530,16 +17530,16 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00647316237489268</v>
+        <v>0.00647490232551526</v>
       </c>
       <c r="H112" t="n">
-        <v>0.014474646944349</v>
+        <v>0.0144800405955808</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0218846448784941</v>
+        <v>0.02190691899909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0196968283038421</v>
+        <v>0.0312155883021491</v>
       </c>
     </row>
     <row r="113">
@@ -17562,16 +17562,16 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0065174116837654</v>
+        <v>0.00651866656327227</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0145735928824192</v>
+        <v>0.014577912023982</v>
       </c>
       <c r="I113" t="n">
-        <v>0.022034244155434</v>
+        <v>0.0220549891263909</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0198314720820996</v>
+        <v>0.0314265762614264</v>
       </c>
     </row>
     <row r="114">
@@ -17594,16 +17594,16 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.00596898349030647</v>
+        <v>0.00598401718579155</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0133472518739755</v>
+        <v>0.0133822577420918</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0201801030787702</v>
+        <v>0.0202460783480415</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0181626902197064</v>
+        <v>0.0288490246607371</v>
       </c>
     </row>
     <row r="115">
@@ -17626,16 +17626,16 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.00599095618176181</v>
+        <v>0.00600543379624916</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0133963850383879</v>
+        <v>0.0134301524242439</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0202543889566265</v>
+        <v>0.0203185384295907</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0182295497090725</v>
+        <v>0.0289522744182258</v>
       </c>
     </row>
     <row r="116">
@@ -17658,16 +17658,16 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.00605298387681116</v>
+        <v>0.00606825036302494</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0135350852492915</v>
+        <v>0.0135706312131522</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0204640938891107</v>
+        <v>0.0205310694255773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0184182903567981</v>
+        <v>0.0292551139034332</v>
       </c>
     </row>
     <row r="117">
@@ -17690,16 +17690,16 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0061577585446484</v>
+        <v>0.00616794436683514</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0137693720225598</v>
+        <v>0.0137935802477066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0208183189594988</v>
+        <v>0.0208683700297206</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0187371034072766</v>
+        <v>0.0297357399920877</v>
       </c>
     </row>
     <row r="118">
@@ -17722,16 +17722,16 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00644619427057485</v>
+        <v>0.00644867286329013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0144143435306307</v>
+        <v>0.0144213827720762</v>
       </c>
       <c r="I118" t="n">
-        <v>0.021793470371837</v>
+        <v>0.0218181753122407</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0196147685485534</v>
+        <v>0.0310891357237095</v>
       </c>
     </row>
     <row r="119">
@@ -17754,16 +17754,16 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0063802095159529</v>
+        <v>0.00638448254823254</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0142667949335853</v>
+        <v>0.0142778318239461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0215703873038304</v>
+        <v>0.0216009964326533</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0194139871827868</v>
+        <v>0.0307796733801731</v>
       </c>
     </row>
     <row r="120">
@@ -17786,16 +17786,16 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00673429140318136</v>
+        <v>0.00672872448380739</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0150585579097312</v>
+        <v>0.015047671576151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0227674770585935</v>
+        <v>0.022765690480471</v>
       </c>
       <c r="J120" t="n">
-        <v>0.020491403402916</v>
+        <v>0.0324392682276343</v>
       </c>
     </row>
     <row r="121">
@@ -17818,16 +17818,16 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.00636715211433621</v>
+        <v>0.0063730543989205</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0142375972605677</v>
+        <v>0.0142522746714747</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0215262424823556</v>
+        <v>0.0215623309009276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0193742555365151</v>
+        <v>0.0307245781237436</v>
       </c>
     </row>
     <row r="122">
@@ -17850,16 +17850,16 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00664053380653635</v>
+        <v>0.00663762233691475</v>
       </c>
       <c r="H122" t="n">
-        <v>0.014848906423921</v>
+        <v>0.0148439367985387</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0224504988046267</v>
+        <v>0.0224574592126794</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0202061135899398</v>
+        <v>0.0320000635928962</v>
       </c>
     </row>
     <row r="123">
@@ -17882,16 +17882,16 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00587901104892184</v>
+        <v>0.00589925030611245</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0131460643788472</v>
+        <v>0.0131926907344047</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0198759217815127</v>
+        <v>0.0199592815635374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0178889180466332</v>
+        <v>0.0284403624316108</v>
       </c>
     </row>
     <row r="124">
@@ -17914,16 +17914,16 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0.00543193031542757</v>
+        <v>0.00546421439551116</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0121463465596171</v>
+        <v>0.0122198053796375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0183644189768729</v>
+        <v>0.0184873989039825</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0165285207731539</v>
+        <v>0.0263430486499855</v>
       </c>
     </row>
     <row r="125">
@@ -17946,16 +17946,16 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0.00626013305688042</v>
+        <v>0.00626762420202801</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0139982918047062</v>
+        <v>0.0140164975965083</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0211644295179944</v>
+        <v>0.021205622696345</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0190486131568149</v>
+        <v>0.0302162977736537</v>
       </c>
     </row>
     <row r="126">
@@ -17978,16 +17978,16 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.00695266475840527</v>
+        <v>0.00694077758370385</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0155468628580482</v>
+        <v>0.0155218930146458</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0235057596866544</v>
+        <v>0.023483142242582</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0211558796256448</v>
+        <v>0.0334615789794857</v>
       </c>
     </row>
     <row r="127">
@@ -18010,16 +18010,16 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00653986632729814</v>
+        <v>0.00622612701847907</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0146238037405089</v>
+        <v>0.0139236960572444</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0221101594300906</v>
+        <v>0.0210652228272822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0198997980768258</v>
+        <v>0.0300162393121913</v>
       </c>
     </row>
     <row r="128">
@@ -18042,16 +18042,16 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.00627010649840049</v>
+        <v>0.0062789529881749</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0140205934304746</v>
+        <v>0.0140418325398107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0211981480025994</v>
+        <v>0.0212439520468126</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0190789607912233</v>
+        <v>0.0302709139989721</v>
       </c>
     </row>
     <row r="129">
@@ -18074,16 +18074,16 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.00662226931795737</v>
+        <v>0.00661987101204765</v>
       </c>
       <c r="H129" t="n">
-        <v>0.014808065176863</v>
+        <v>0.0148042389171223</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0223887497207494</v>
+        <v>0.0223974001080875</v>
       </c>
       <c r="J129" t="n">
-        <v>0.020150537586317</v>
+        <v>0.0319144842248978</v>
       </c>
     </row>
     <row r="130">
@@ -18106,16 +18106,16 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00624265826952852</v>
+        <v>0.00624804294046252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.013959216409606</v>
+        <v>0.013972707366459</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0211053502776826</v>
+        <v>0.0211393722589717</v>
       </c>
       <c r="J130" t="n">
-        <v>0.018995440091444</v>
+        <v>0.0301218962570384</v>
       </c>
     </row>
     <row r="131">
@@ -18138,16 +18138,16 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.00619881814623888</v>
+        <v>0.00620979823994383</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0138611854519592</v>
+        <v>0.0138871794637609</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0209571343865837</v>
+        <v>0.0210099767076124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0188620414013997</v>
+        <v>0.0299375180585556</v>
       </c>
     </row>
     <row r="132">
@@ -18170,16 +18170,16 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00674982499000861</v>
+        <v>0.00674489502792748</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0150932925837719</v>
+        <v>0.0150838343047204</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0228199934349356</v>
+        <v>0.0228204012363096</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0205386696964151</v>
+        <v>0.032517226631097</v>
       </c>
     </row>
     <row r="133">
@@ -18202,16 +18202,16 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00658746572802333</v>
+        <v>0.00658592348231955</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0147302408233993</v>
+        <v>0.0147283209211634</v>
       </c>
       <c r="I133" t="n">
-        <v>0.022271084789439</v>
+        <v>0.0222825434281586</v>
       </c>
       <c r="J133" t="n">
-        <v>0.020044635664569</v>
+        <v>0.031750822742671</v>
       </c>
     </row>
     <row r="134">
@@ -18234,16 +18234,16 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00631489987401918</v>
+        <v>0.00631886410202381</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0141207559569147</v>
+        <v>0.0141310870983652</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0213495866753146</v>
+        <v>0.0213789856726955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0192152600801355</v>
+        <v>0.0304633259977876</v>
       </c>
     </row>
     <row r="135">
@@ -18266,16 +18266,16 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00559290490406598</v>
+        <v>0.00620459859177297</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0125063020500881</v>
+        <v>0.0138755513166767</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0189086462807448</v>
+        <v>0.0209923844312233</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0170183414589427</v>
+        <v>0.0299124504871147</v>
       </c>
     </row>
     <row r="136">
@@ -18298,16 +18298,16 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00724955397794806</v>
+        <v>0.00723371562067772</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0162107372343705</v>
+        <v>0.0161770001427728</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0245094909020412</v>
+        <v>0.024474256783793</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0220592674357943</v>
+        <v>0.0348738370647053</v>
       </c>
     </row>
     <row r="137">
@@ -18330,16 +18330,16 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00658040941452746</v>
+        <v>0.00657901260492721</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147144621914624</v>
+        <v>0.0147128658949466</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0222472286112582</v>
+        <v>0.0222591614489973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0200231643979242</v>
+        <v>0.0317175053129028</v>
       </c>
     </row>
     <row r="138">
@@ -18362,16 +18362,16 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00727506724737916</v>
+        <v>0.00699471259116748</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0162677874898753</v>
+        <v>0.0156425096754592</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0245957468630155</v>
+        <v>0.0236656237350155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0221369003543509</v>
+        <v>0.0337216003517655</v>
       </c>
     </row>
     <row r="139">
@@ -18394,16 +18394,16 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00682870628080553</v>
+        <v>0.0068221021577917</v>
       </c>
       <c r="H139" t="n">
-        <v>0.015269679142408</v>
+        <v>0.0152564951910935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0230866774661201</v>
+        <v>0.0230816206733075</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0207786932198847</v>
+        <v>0.0328894432080691</v>
       </c>
     </row>
     <row r="140">
@@ -18426,16 +18426,16 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0059127075373472</v>
+        <v>0.00592436425184492</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0132214131411636</v>
+        <v>0.0132488538910733</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0199898437936812</v>
+        <v>0.0200442510576317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0179914512303412</v>
+        <v>0.0285614370905347</v>
       </c>
     </row>
     <row r="141">
@@ -18458,16 +18458,16 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00663497669530849</v>
+        <v>0.00663245128984739</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0148364801601576</v>
+        <v>0.0148323726130587</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0224317111705881</v>
+        <v>0.022439963704091</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0201892041630814</v>
+        <v>0.0319751339077472</v>
       </c>
     </row>
   </sheetData>
@@ -21896,16 +21896,16 @@
         <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00667157163564096</v>
+        <v>0.00666794872987283</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0149183101546154</v>
+        <v>0.0149117567252455</v>
       </c>
       <c r="I107" t="n">
-        <v>0.022555432348452</v>
+        <v>0.0225600642869597</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0203005568860278</v>
+        <v>0.0321462675276703</v>
       </c>
     </row>
     <row r="108">
@@ -21928,16 +21928,16 @@
         <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00531025808134097</v>
+        <v>0.00534562867992784</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0118742751161191</v>
+        <v>0.0119546081782935</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0179530661511063</v>
+        <v>0.0180861808569556</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0161582910515199</v>
+        <v>0.0257713453732307</v>
       </c>
     </row>
     <row r="109">
@@ -21960,16 +21960,16 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00722388797732029</v>
+        <v>0.00720389473644178</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016153345456435</v>
+        <v>0.0161103107021258</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0244227185832487</v>
+        <v>0.0243733620269928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.021981169779914</v>
+        <v>0.0347300701940535</v>
       </c>
     </row>
     <row r="110">
@@ -21992,16 +21992,16 @@
         <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>0.00758211225905405</v>
+        <v>0.00754677891234515</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0169543712464107</v>
+        <v>0.016877114050973</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0256338130589572</v>
+        <v>0.0255334622864183</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0230711906635156</v>
+        <v>0.0363831192644841</v>
       </c>
     </row>
     <row r="111">
@@ -22024,16 +22024,16 @@
         <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00625741252328824</v>
+        <v>0.00626497586508583</v>
       </c>
       <c r="H111" t="n">
-        <v>0.013992208415944</v>
+        <v>0.0140105750320423</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0211552318634175</v>
+        <v>0.0211966624217404</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190403349953914</v>
+        <v>0.0302035301068201</v>
       </c>
     </row>
     <row r="112">
@@ -22056,16 +22056,16 @@
         <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00647316237489268</v>
+        <v>0.00647490232551526</v>
       </c>
       <c r="H112" t="n">
-        <v>0.014474646944349</v>
+        <v>0.0144800405955808</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0218846448784941</v>
+        <v>0.02190691899909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0196968283038421</v>
+        <v>0.0312155883021491</v>
       </c>
     </row>
     <row r="113">
@@ -22088,16 +22088,16 @@
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0065174116837654</v>
+        <v>0.00651866656327227</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0145735928824192</v>
+        <v>0.014577912023982</v>
       </c>
       <c r="I113" t="n">
-        <v>0.022034244155434</v>
+        <v>0.0220549891263909</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0198314720820996</v>
+        <v>0.0314265762614264</v>
       </c>
     </row>
     <row r="114">
@@ -22120,16 +22120,16 @@
         <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>0.00596898349030647</v>
+        <v>0.00598401718579155</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0133472518739755</v>
+        <v>0.0133822577420918</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0201801030787702</v>
+        <v>0.0202460783480415</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0181626902197064</v>
+        <v>0.0288490246607371</v>
       </c>
     </row>
     <row r="115">
@@ -22152,16 +22152,16 @@
         <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>0.00599095618176181</v>
+        <v>0.00600543379624916</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0133963850383879</v>
+        <v>0.0134301524242439</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0202543889566265</v>
+        <v>0.0203185384295907</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0182295497090725</v>
+        <v>0.0289522744182258</v>
       </c>
     </row>
     <row r="116">
@@ -22184,16 +22184,16 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>0.00605298387681116</v>
+        <v>0.00606825036302494</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0135350852492915</v>
+        <v>0.0135706312131522</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0204640938891107</v>
+        <v>0.0205310694255773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0184182903567981</v>
+        <v>0.0292551139034332</v>
       </c>
     </row>
     <row r="117">
@@ -22216,16 +22216,16 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0061577585446484</v>
+        <v>0.00616794436683514</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0137693720225598</v>
+        <v>0.0137935802477066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0208183189594988</v>
+        <v>0.0208683700297206</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0187371034072766</v>
+        <v>0.0297357399920877</v>
       </c>
     </row>
     <row r="118">
@@ -22248,16 +22248,16 @@
         <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00644619427057485</v>
+        <v>0.00644867286329013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0144143435306307</v>
+        <v>0.0144213827720762</v>
       </c>
       <c r="I118" t="n">
-        <v>0.021793470371837</v>
+        <v>0.0218181753122407</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0196147685485534</v>
+        <v>0.0310891357237095</v>
       </c>
     </row>
     <row r="119">
@@ -22280,16 +22280,16 @@
         <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0063802095159529</v>
+        <v>0.00638448254823254</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0142667949335853</v>
+        <v>0.0142778318239461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0215703873038304</v>
+        <v>0.0216009964326533</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0194139871827868</v>
+        <v>0.0307796733801731</v>
       </c>
     </row>
     <row r="120">
@@ -22312,16 +22312,16 @@
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00673429140318136</v>
+        <v>0.00672872448380739</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0150585579097312</v>
+        <v>0.015047671576151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0227674770585935</v>
+        <v>0.022765690480471</v>
       </c>
       <c r="J120" t="n">
-        <v>0.020491403402916</v>
+        <v>0.0324392682276343</v>
       </c>
     </row>
     <row r="121">
@@ -22344,16 +22344,16 @@
         <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>0.00636715211433621</v>
+        <v>0.0063730543989205</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0142375972605677</v>
+        <v>0.0142522746714747</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0215262424823556</v>
+        <v>0.0215623309009276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0193742555365151</v>
+        <v>0.0307245781237436</v>
       </c>
     </row>
     <row r="122">
@@ -22376,16 +22376,16 @@
         <v>2</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00664053380653635</v>
+        <v>0.00663762233691475</v>
       </c>
       <c r="H122" t="n">
-        <v>0.014848906423921</v>
+        <v>0.0148439367985387</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0224504988046267</v>
+        <v>0.0224574592126794</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0202061135899398</v>
+        <v>0.0320000635928962</v>
       </c>
     </row>
     <row r="123">
@@ -22408,16 +22408,16 @@
         <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00587901104892184</v>
+        <v>0.00589925030611245</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0131460643788472</v>
+        <v>0.0131926907344047</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0198759217815127</v>
+        <v>0.0199592815635374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0178889180466332</v>
+        <v>0.0284403624316108</v>
       </c>
     </row>
     <row r="124">
@@ -22440,16 +22440,16 @@
         <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>0.00543193031542757</v>
+        <v>0.00546421439551116</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0121463465596171</v>
+        <v>0.0122198053796375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0183644189768729</v>
+        <v>0.0184873989039825</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0165285207731539</v>
+        <v>0.0263430486499855</v>
       </c>
     </row>
     <row r="125">
@@ -22472,16 +22472,16 @@
         <v>2</v>
       </c>
       <c r="G125" t="n">
-        <v>0.00626013305688042</v>
+        <v>0.00626762420202801</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0139982918047062</v>
+        <v>0.0140164975965083</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0211644295179944</v>
+        <v>0.021205622696345</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0190486131568149</v>
+        <v>0.0302162977736537</v>
       </c>
     </row>
     <row r="126">
@@ -22504,16 +22504,16 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>0.00695266475840527</v>
+        <v>0.00694077758370385</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0155468628580482</v>
+        <v>0.0155218930146458</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0235057596866544</v>
+        <v>0.023483142242582</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0211558796256448</v>
+        <v>0.0334615789794857</v>
       </c>
     </row>
     <row r="127">
@@ -22536,16 +22536,16 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00653986632729814</v>
+        <v>0.00622612701847907</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0146238037405089</v>
+        <v>0.0139236960572444</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0221101594300906</v>
+        <v>0.0210652228272822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0198997980768258</v>
+        <v>0.0300162393121913</v>
       </c>
     </row>
     <row r="128">
@@ -22568,16 +22568,16 @@
         <v>2</v>
       </c>
       <c r="G128" t="n">
-        <v>0.00627010649840049</v>
+        <v>0.0062789529881749</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0140205934304746</v>
+        <v>0.0140418325398107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0211981480025994</v>
+        <v>0.0212439520468126</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0190789607912233</v>
+        <v>0.0302709139989721</v>
       </c>
     </row>
     <row r="129">
@@ -22600,16 +22600,16 @@
         <v>2</v>
       </c>
       <c r="G129" t="n">
-        <v>0.00662226931795737</v>
+        <v>0.00661987101204765</v>
       </c>
       <c r="H129" t="n">
-        <v>0.014808065176863</v>
+        <v>0.0148042389171223</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0223887497207494</v>
+        <v>0.0223974001080875</v>
       </c>
       <c r="J129" t="n">
-        <v>0.020150537586317</v>
+        <v>0.0319144842248978</v>
       </c>
     </row>
     <row r="130">
@@ -22632,16 +22632,16 @@
         <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00624265826952852</v>
+        <v>0.00624804294046252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.013959216409606</v>
+        <v>0.013972707366459</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0211053502776826</v>
+        <v>0.0211393722589717</v>
       </c>
       <c r="J130" t="n">
-        <v>0.018995440091444</v>
+        <v>0.0301218962570384</v>
       </c>
     </row>
     <row r="131">
@@ -22664,16 +22664,16 @@
         <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>0.00619881814623888</v>
+        <v>0.00620979823994383</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0138611854519592</v>
+        <v>0.0138871794637609</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0209571343865837</v>
+        <v>0.0210099767076124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0188620414013997</v>
+        <v>0.0299375180585556</v>
       </c>
     </row>
     <row r="132">
@@ -22696,16 +22696,16 @@
         <v>2</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00674982499000861</v>
+        <v>0.00674489502792748</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0150932925837719</v>
+        <v>0.0150838343047204</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0228199934349356</v>
+        <v>0.0228204012363096</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0205386696964151</v>
+        <v>0.032517226631097</v>
       </c>
     </row>
     <row r="133">
@@ -22728,16 +22728,16 @@
         <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00658746572802333</v>
+        <v>0.00658592348231955</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0147302408233993</v>
+        <v>0.0147283209211634</v>
       </c>
       <c r="I133" t="n">
-        <v>0.022271084789439</v>
+        <v>0.0222825434281586</v>
       </c>
       <c r="J133" t="n">
-        <v>0.020044635664569</v>
+        <v>0.031750822742671</v>
       </c>
     </row>
     <row r="134">
@@ -22760,16 +22760,16 @@
         <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00631489987401918</v>
+        <v>0.00631886410202381</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0141207559569147</v>
+        <v>0.0141310870983652</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0213495866753146</v>
+        <v>0.0213789856726955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0192152600801355</v>
+        <v>0.0304633259977876</v>
       </c>
     </row>
     <row r="135">
@@ -22792,16 +22792,16 @@
         <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00559290490406598</v>
+        <v>0.00620459859177297</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0125063020500881</v>
+        <v>0.0138755513166767</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0189086462807448</v>
+        <v>0.0209923844312233</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0170183414589427</v>
+        <v>0.0299124504871147</v>
       </c>
     </row>
     <row r="136">
@@ -22824,16 +22824,16 @@
         <v>2</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00724955397794806</v>
+        <v>0.00723371562067772</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0162107372343705</v>
+        <v>0.0161770001427728</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0245094909020412</v>
+        <v>0.024474256783793</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0220592674357943</v>
+        <v>0.0348738370647053</v>
       </c>
     </row>
     <row r="137">
@@ -22856,16 +22856,16 @@
         <v>2</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00658040941452746</v>
+        <v>0.00657901260492721</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147144621914624</v>
+        <v>0.0147128658949466</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0222472286112582</v>
+        <v>0.0222591614489973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0200231643979242</v>
+        <v>0.0317175053129028</v>
       </c>
     </row>
     <row r="138">
@@ -22888,16 +22888,16 @@
         <v>2</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00727506724737916</v>
+        <v>0.00699471259116748</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0162677874898753</v>
+        <v>0.0156425096754592</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0245957468630155</v>
+        <v>0.0236656237350155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0221369003543509</v>
+        <v>0.0337216003517655</v>
       </c>
     </row>
     <row r="139">
@@ -22920,16 +22920,16 @@
         <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00682870628080553</v>
+        <v>0.0068221021577917</v>
       </c>
       <c r="H139" t="n">
-        <v>0.015269679142408</v>
+        <v>0.0152564951910935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0230866774661201</v>
+        <v>0.0230816206733075</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0207786932198847</v>
+        <v>0.0328894432080691</v>
       </c>
     </row>
     <row r="140">
@@ -22952,16 +22952,16 @@
         <v>2</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0059127075373472</v>
+        <v>0.00592436425184492</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0132214131411636</v>
+        <v>0.0132488538910733</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0199898437936812</v>
+        <v>0.0200442510576317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0179914512303412</v>
+        <v>0.0285614370905347</v>
       </c>
     </row>
     <row r="141">
@@ -22984,16 +22984,16 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00663497669530849</v>
+        <v>0.00663245128984739</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0148364801601576</v>
+        <v>0.0148323726130587</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0224317111705881</v>
+        <v>0.022439963704091</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0201892041630814</v>
+        <v>0.0319751339077472</v>
       </c>
     </row>
   </sheetData>
@@ -26422,16 +26422,16 @@
         <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00667157163564096</v>
+        <v>0.00666794872987283</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0149183101546154</v>
+        <v>0.0149117567252455</v>
       </c>
       <c r="I107" t="n">
-        <v>0.022555432348452</v>
+        <v>0.0225600642869597</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0203005568860278</v>
+        <v>0.0321462675276703</v>
       </c>
     </row>
     <row r="108">
@@ -26454,16 +26454,16 @@
         <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00531025808134097</v>
+        <v>0.00534562867992784</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0118742751161191</v>
+        <v>0.0119546081782935</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0179530661511063</v>
+        <v>0.0180861808569556</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0161582910515199</v>
+        <v>0.0257713453732307</v>
       </c>
     </row>
     <row r="109">
@@ -26486,16 +26486,16 @@
         <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00722388797732029</v>
+        <v>0.00720389473644178</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016153345456435</v>
+        <v>0.0161103107021258</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0244227185832487</v>
+        <v>0.0243733620269928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.021981169779914</v>
+        <v>0.0347300701940535</v>
       </c>
     </row>
     <row r="110">
@@ -26518,16 +26518,16 @@
         <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>0.00758211225905405</v>
+        <v>0.00754677891234515</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0169543712464107</v>
+        <v>0.016877114050973</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0256338130589572</v>
+        <v>0.0255334622864183</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0230711906635156</v>
+        <v>0.0363831192644841</v>
       </c>
     </row>
     <row r="111">
@@ -26550,16 +26550,16 @@
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00625741252328824</v>
+        <v>0.00626497586508583</v>
       </c>
       <c r="H111" t="n">
-        <v>0.013992208415944</v>
+        <v>0.0140105750320423</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0211552318634175</v>
+        <v>0.0211966624217404</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190403349953914</v>
+        <v>0.0302035301068201</v>
       </c>
     </row>
     <row r="112">
@@ -26582,16 +26582,16 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00647316237489268</v>
+        <v>0.00647490232551526</v>
       </c>
       <c r="H112" t="n">
-        <v>0.014474646944349</v>
+        <v>0.0144800405955808</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0218846448784941</v>
+        <v>0.02190691899909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0196968283038421</v>
+        <v>0.0312155883021491</v>
       </c>
     </row>
     <row r="113">
@@ -26614,16 +26614,16 @@
         <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0065174116837654</v>
+        <v>0.00651866656327227</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0145735928824192</v>
+        <v>0.014577912023982</v>
       </c>
       <c r="I113" t="n">
-        <v>0.022034244155434</v>
+        <v>0.0220549891263909</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0198314720820996</v>
+        <v>0.0314265762614264</v>
       </c>
     </row>
     <row r="114">
@@ -26646,16 +26646,16 @@
         <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>0.00596898349030647</v>
+        <v>0.00598401718579155</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0133472518739755</v>
+        <v>0.0133822577420918</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0201801030787702</v>
+        <v>0.0202460783480415</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0181626902197064</v>
+        <v>0.0288490246607371</v>
       </c>
     </row>
     <row r="115">
@@ -26678,16 +26678,16 @@
         <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>0.00599095618176181</v>
+        <v>0.00600543379624916</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0133963850383879</v>
+        <v>0.0134301524242439</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0202543889566265</v>
+        <v>0.0203185384295907</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0182295497090725</v>
+        <v>0.0289522744182258</v>
       </c>
     </row>
     <row r="116">
@@ -26710,16 +26710,16 @@
         <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>0.00605298387681116</v>
+        <v>0.00606825036302494</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0135350852492915</v>
+        <v>0.0135706312131522</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0204640938891107</v>
+        <v>0.0205310694255773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0184182903567981</v>
+        <v>0.0292551139034332</v>
       </c>
     </row>
     <row r="117">
@@ -26742,16 +26742,16 @@
         <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0061577585446484</v>
+        <v>0.00616794436683514</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0137693720225598</v>
+        <v>0.0137935802477066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0208183189594988</v>
+        <v>0.0208683700297206</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0187371034072766</v>
+        <v>0.0297357399920877</v>
       </c>
     </row>
     <row r="118">
@@ -26774,16 +26774,16 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00644619427057485</v>
+        <v>0.00644867286329013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0144143435306307</v>
+        <v>0.0144213827720762</v>
       </c>
       <c r="I118" t="n">
-        <v>0.021793470371837</v>
+        <v>0.0218181753122407</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0196147685485534</v>
+        <v>0.0310891357237095</v>
       </c>
     </row>
     <row r="119">
@@ -26806,16 +26806,16 @@
         <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0063802095159529</v>
+        <v>0.00638448254823254</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0142667949335853</v>
+        <v>0.0142778318239461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0215703873038304</v>
+        <v>0.0216009964326533</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0194139871827868</v>
+        <v>0.0307796733801731</v>
       </c>
     </row>
     <row r="120">
@@ -26838,16 +26838,16 @@
         <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00673429140318136</v>
+        <v>0.00672872448380739</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0150585579097312</v>
+        <v>0.015047671576151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0227674770585935</v>
+        <v>0.022765690480471</v>
       </c>
       <c r="J120" t="n">
-        <v>0.020491403402916</v>
+        <v>0.0324392682276343</v>
       </c>
     </row>
     <row r="121">
@@ -26870,16 +26870,16 @@
         <v>3</v>
       </c>
       <c r="G121" t="n">
-        <v>0.00636715211433621</v>
+        <v>0.0063730543989205</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0142375972605677</v>
+        <v>0.0142522746714747</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0215262424823556</v>
+        <v>0.0215623309009276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0193742555365151</v>
+        <v>0.0307245781237436</v>
       </c>
     </row>
     <row r="122">
@@ -26902,16 +26902,16 @@
         <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00664053380653635</v>
+        <v>0.00663762233691475</v>
       </c>
       <c r="H122" t="n">
-        <v>0.014848906423921</v>
+        <v>0.0148439367985387</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0224504988046267</v>
+        <v>0.0224574592126794</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0202061135899398</v>
+        <v>0.0320000635928962</v>
       </c>
     </row>
     <row r="123">
@@ -26934,16 +26934,16 @@
         <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00587901104892184</v>
+        <v>0.00589925030611245</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0131460643788472</v>
+        <v>0.0131926907344047</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0198759217815127</v>
+        <v>0.0199592815635374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0178889180466332</v>
+        <v>0.0284403624316108</v>
       </c>
     </row>
     <row r="124">
@@ -26966,16 +26966,16 @@
         <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>0.00543193031542757</v>
+        <v>0.00546421439551116</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0121463465596171</v>
+        <v>0.0122198053796375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0183644189768729</v>
+        <v>0.0184873989039825</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0165285207731539</v>
+        <v>0.0263430486499855</v>
       </c>
     </row>
     <row r="125">
@@ -26998,16 +26998,16 @@
         <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>0.00626013305688042</v>
+        <v>0.00626762420202801</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0139982918047062</v>
+        <v>0.0140164975965083</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0211644295179944</v>
+        <v>0.021205622696345</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0190486131568149</v>
+        <v>0.0302162977736537</v>
       </c>
     </row>
     <row r="126">
@@ -27030,16 +27030,16 @@
         <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>0.00695266475840527</v>
+        <v>0.00694077758370385</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0155468628580482</v>
+        <v>0.0155218930146458</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0235057596866544</v>
+        <v>0.023483142242582</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0211558796256448</v>
+        <v>0.0334615789794857</v>
       </c>
     </row>
     <row r="127">
@@ -27062,16 +27062,16 @@
         <v>3</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00653986632729814</v>
+        <v>0.00622612701847907</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0146238037405089</v>
+        <v>0.0139236960572444</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0221101594300906</v>
+        <v>0.0210652228272822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0198997980768258</v>
+        <v>0.0300162393121913</v>
       </c>
     </row>
     <row r="128">
@@ -27094,16 +27094,16 @@
         <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>0.00627010649840049</v>
+        <v>0.0062789529881749</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0140205934304746</v>
+        <v>0.0140418325398107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0211981480025994</v>
+        <v>0.0212439520468126</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0190789607912233</v>
+        <v>0.0302709139989721</v>
       </c>
     </row>
     <row r="129">
@@ -27126,16 +27126,16 @@
         <v>3</v>
       </c>
       <c r="G129" t="n">
-        <v>0.00662226931795737</v>
+        <v>0.00661987101204765</v>
       </c>
       <c r="H129" t="n">
-        <v>0.014808065176863</v>
+        <v>0.0148042389171223</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0223887497207494</v>
+        <v>0.0223974001080875</v>
       </c>
       <c r="J129" t="n">
-        <v>0.020150537586317</v>
+        <v>0.0319144842248978</v>
       </c>
     </row>
     <row r="130">
@@ -27158,16 +27158,16 @@
         <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00624265826952852</v>
+        <v>0.00624804294046252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.013959216409606</v>
+        <v>0.013972707366459</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0211053502776826</v>
+        <v>0.0211393722589717</v>
       </c>
       <c r="J130" t="n">
-        <v>0.018995440091444</v>
+        <v>0.0301218962570384</v>
       </c>
     </row>
     <row r="131">
@@ -27190,16 +27190,16 @@
         <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>0.00619881814623888</v>
+        <v>0.00620979823994383</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0138611854519592</v>
+        <v>0.0138871794637609</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0209571343865837</v>
+        <v>0.0210099767076124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0188620414013997</v>
+        <v>0.0299375180585556</v>
       </c>
     </row>
     <row r="132">
@@ -27222,16 +27222,16 @@
         <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00674982499000861</v>
+        <v>0.00674489502792748</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0150932925837719</v>
+        <v>0.0150838343047204</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0228199934349356</v>
+        <v>0.0228204012363096</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0205386696964151</v>
+        <v>0.032517226631097</v>
       </c>
     </row>
     <row r="133">
@@ -27254,16 +27254,16 @@
         <v>3</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00658746572802333</v>
+        <v>0.00658592348231955</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0147302408233993</v>
+        <v>0.0147283209211634</v>
       </c>
       <c r="I133" t="n">
-        <v>0.022271084789439</v>
+        <v>0.0222825434281586</v>
       </c>
       <c r="J133" t="n">
-        <v>0.020044635664569</v>
+        <v>0.031750822742671</v>
       </c>
     </row>
     <row r="134">
@@ -27286,16 +27286,16 @@
         <v>3</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00631489987401918</v>
+        <v>0.00631886410202381</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0141207559569147</v>
+        <v>0.0141310870983652</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0213495866753146</v>
+        <v>0.0213789856726955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0192152600801355</v>
+        <v>0.0304633259977876</v>
       </c>
     </row>
     <row r="135">
@@ -27318,16 +27318,16 @@
         <v>3</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00559290490406598</v>
+        <v>0.00620459859177297</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0125063020500881</v>
+        <v>0.0138755513166767</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0189086462807448</v>
+        <v>0.0209923844312233</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0170183414589427</v>
+        <v>0.0299124504871147</v>
       </c>
     </row>
     <row r="136">
@@ -27350,16 +27350,16 @@
         <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00724955397794806</v>
+        <v>0.00723371562067772</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0162107372343705</v>
+        <v>0.0161770001427728</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0245094909020412</v>
+        <v>0.024474256783793</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0220592674357943</v>
+        <v>0.0348738370647053</v>
       </c>
     </row>
     <row r="137">
@@ -27382,16 +27382,16 @@
         <v>3</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00658040941452746</v>
+        <v>0.00657901260492721</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147144621914624</v>
+        <v>0.0147128658949466</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0222472286112582</v>
+        <v>0.0222591614489973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0200231643979242</v>
+        <v>0.0317175053129028</v>
       </c>
     </row>
     <row r="138">
@@ -27414,16 +27414,16 @@
         <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00727506724737916</v>
+        <v>0.00699471259116748</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0162677874898753</v>
+        <v>0.0156425096754592</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0245957468630155</v>
+        <v>0.0236656237350155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0221369003543509</v>
+        <v>0.0337216003517655</v>
       </c>
     </row>
     <row r="139">
@@ -27446,16 +27446,16 @@
         <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00682870628080553</v>
+        <v>0.0068221021577917</v>
       </c>
       <c r="H139" t="n">
-        <v>0.015269679142408</v>
+        <v>0.0152564951910935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0230866774661201</v>
+        <v>0.0230816206733075</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0207786932198847</v>
+        <v>0.0328894432080691</v>
       </c>
     </row>
     <row r="140">
@@ -27478,16 +27478,16 @@
         <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0059127075373472</v>
+        <v>0.00592436425184492</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0132214131411636</v>
+        <v>0.0132488538910733</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0199898437936812</v>
+        <v>0.0200442510576317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0179914512303412</v>
+        <v>0.0285614370905347</v>
       </c>
     </row>
     <row r="141">
@@ -27510,16 +27510,16 @@
         <v>3</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00663497669530849</v>
+        <v>0.00663245128984739</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0148364801601576</v>
+        <v>0.0148323726130587</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0224317111705881</v>
+        <v>0.022439963704091</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0201892041630814</v>
+        <v>0.0319751339077472</v>
       </c>
     </row>
   </sheetData>
@@ -30948,16 +30948,16 @@
         <v>4</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00667157163564096</v>
+        <v>0.00666794872987283</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0149183101546154</v>
+        <v>0.0149117567252455</v>
       </c>
       <c r="I107" t="n">
-        <v>0.022555432348452</v>
+        <v>0.0225600642869597</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0203005568860278</v>
+        <v>0.0321462675276703</v>
       </c>
     </row>
     <row r="108">
@@ -30980,16 +30980,16 @@
         <v>4</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00531025808134097</v>
+        <v>0.00534562867992784</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0118742751161191</v>
+        <v>0.0119546081782935</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0179530661511063</v>
+        <v>0.0180861808569556</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0161582910515199</v>
+        <v>0.0257713453732307</v>
       </c>
     </row>
     <row r="109">
@@ -31012,16 +31012,16 @@
         <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00722388797732029</v>
+        <v>0.00720389473644178</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016153345456435</v>
+        <v>0.0161103107021258</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0244227185832487</v>
+        <v>0.0243733620269928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.021981169779914</v>
+        <v>0.0347300701940535</v>
       </c>
     </row>
     <row r="110">
@@ -31044,16 +31044,16 @@
         <v>4</v>
       </c>
       <c r="G110" t="n">
-        <v>0.00758211225905405</v>
+        <v>0.00754677891234515</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0169543712464107</v>
+        <v>0.016877114050973</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0256338130589572</v>
+        <v>0.0255334622864183</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0230711906635156</v>
+        <v>0.0363831192644841</v>
       </c>
     </row>
     <row r="111">
@@ -31076,16 +31076,16 @@
         <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00625741252328824</v>
+        <v>0.00626497586508583</v>
       </c>
       <c r="H111" t="n">
-        <v>0.013992208415944</v>
+        <v>0.0140105750320423</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0211552318634175</v>
+        <v>0.0211966624217404</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190403349953914</v>
+        <v>0.0302035301068201</v>
       </c>
     </row>
     <row r="112">
@@ -31108,16 +31108,16 @@
         <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00647316237489268</v>
+        <v>0.00647490232551526</v>
       </c>
       <c r="H112" t="n">
-        <v>0.014474646944349</v>
+        <v>0.0144800405955808</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0218846448784941</v>
+        <v>0.02190691899909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0196968283038421</v>
+        <v>0.0312155883021491</v>
       </c>
     </row>
     <row r="113">
@@ -31140,16 +31140,16 @@
         <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0065174116837654</v>
+        <v>0.00651866656327227</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0145735928824192</v>
+        <v>0.014577912023982</v>
       </c>
       <c r="I113" t="n">
-        <v>0.022034244155434</v>
+        <v>0.0220549891263909</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0198314720820996</v>
+        <v>0.0314265762614264</v>
       </c>
     </row>
     <row r="114">
@@ -31172,16 +31172,16 @@
         <v>4</v>
       </c>
       <c r="G114" t="n">
-        <v>0.00596898349030647</v>
+        <v>0.00598401718579155</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0133472518739755</v>
+        <v>0.0133822577420918</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0201801030787702</v>
+        <v>0.0202460783480415</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0181626902197064</v>
+        <v>0.0288490246607371</v>
       </c>
     </row>
     <row r="115">
@@ -31204,16 +31204,16 @@
         <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>0.00599095618176181</v>
+        <v>0.00600543379624916</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0133963850383879</v>
+        <v>0.0134301524242439</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0202543889566265</v>
+        <v>0.0203185384295907</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0182295497090725</v>
+        <v>0.0289522744182258</v>
       </c>
     </row>
     <row r="116">
@@ -31236,16 +31236,16 @@
         <v>4</v>
       </c>
       <c r="G116" t="n">
-        <v>0.00605298387681116</v>
+        <v>0.00606825036302494</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0135350852492915</v>
+        <v>0.0135706312131522</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0204640938891107</v>
+        <v>0.0205310694255773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0184182903567981</v>
+        <v>0.0292551139034332</v>
       </c>
     </row>
     <row r="117">
@@ -31268,16 +31268,16 @@
         <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0061577585446484</v>
+        <v>0.00616794436683514</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0137693720225598</v>
+        <v>0.0137935802477066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0208183189594988</v>
+        <v>0.0208683700297206</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0187371034072766</v>
+        <v>0.0297357399920877</v>
       </c>
     </row>
     <row r="118">
@@ -31300,16 +31300,16 @@
         <v>4</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00644619427057485</v>
+        <v>0.00644867286329013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0144143435306307</v>
+        <v>0.0144213827720762</v>
       </c>
       <c r="I118" t="n">
-        <v>0.021793470371837</v>
+        <v>0.0218181753122407</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0196147685485534</v>
+        <v>0.0310891357237095</v>
       </c>
     </row>
     <row r="119">
@@ -31332,16 +31332,16 @@
         <v>4</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0063802095159529</v>
+        <v>0.00638448254823254</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0142667949335853</v>
+        <v>0.0142778318239461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0215703873038304</v>
+        <v>0.0216009964326533</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0194139871827868</v>
+        <v>0.0307796733801731</v>
       </c>
     </row>
     <row r="120">
@@ -31364,16 +31364,16 @@
         <v>4</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00673429140318136</v>
+        <v>0.00672872448380739</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0150585579097312</v>
+        <v>0.015047671576151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0227674770585935</v>
+        <v>0.022765690480471</v>
       </c>
       <c r="J120" t="n">
-        <v>0.020491403402916</v>
+        <v>0.0324392682276343</v>
       </c>
     </row>
     <row r="121">
@@ -31396,16 +31396,16 @@
         <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>0.00636715211433621</v>
+        <v>0.0063730543989205</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0142375972605677</v>
+        <v>0.0142522746714747</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0215262424823556</v>
+        <v>0.0215623309009276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0193742555365151</v>
+        <v>0.0307245781237436</v>
       </c>
     </row>
     <row r="122">
@@ -31428,16 +31428,16 @@
         <v>4</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00664053380653635</v>
+        <v>0.00663762233691475</v>
       </c>
       <c r="H122" t="n">
-        <v>0.014848906423921</v>
+        <v>0.0148439367985387</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0224504988046267</v>
+        <v>0.0224574592126794</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0202061135899398</v>
+        <v>0.0320000635928962</v>
       </c>
     </row>
     <row r="123">
@@ -31460,16 +31460,16 @@
         <v>4</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00587901104892184</v>
+        <v>0.00589925030611245</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0131460643788472</v>
+        <v>0.0131926907344047</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0198759217815127</v>
+        <v>0.0199592815635374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0178889180466332</v>
+        <v>0.0284403624316108</v>
       </c>
     </row>
     <row r="124">
@@ -31492,16 +31492,16 @@
         <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>0.00543193031542757</v>
+        <v>0.00546421439551116</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0121463465596171</v>
+        <v>0.0122198053796375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0183644189768729</v>
+        <v>0.0184873989039825</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0165285207731539</v>
+        <v>0.0263430486499855</v>
       </c>
     </row>
     <row r="125">
@@ -31524,16 +31524,16 @@
         <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>0.00626013305688042</v>
+        <v>0.00626762420202801</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0139982918047062</v>
+        <v>0.0140164975965083</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0211644295179944</v>
+        <v>0.021205622696345</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0190486131568149</v>
+        <v>0.0302162977736537</v>
       </c>
     </row>
     <row r="126">
@@ -31556,16 +31556,16 @@
         <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>0.00695266475840527</v>
+        <v>0.00694077758370385</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0155468628580482</v>
+        <v>0.0155218930146458</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0235057596866544</v>
+        <v>0.023483142242582</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0211558796256448</v>
+        <v>0.0334615789794857</v>
       </c>
     </row>
     <row r="127">
@@ -31588,16 +31588,16 @@
         <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00653986632729814</v>
+        <v>0.00622612701847907</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0146238037405089</v>
+        <v>0.0139236960572444</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0221101594300906</v>
+        <v>0.0210652228272822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0198997980768258</v>
+        <v>0.0300162393121913</v>
       </c>
     </row>
     <row r="128">
@@ -31620,16 +31620,16 @@
         <v>4</v>
       </c>
       <c r="G128" t="n">
-        <v>0.00627010649840049</v>
+        <v>0.0062789529881749</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0140205934304746</v>
+        <v>0.0140418325398107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0211981480025994</v>
+        <v>0.0212439520468126</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0190789607912233</v>
+        <v>0.0302709139989721</v>
       </c>
     </row>
     <row r="129">
@@ -31652,16 +31652,16 @@
         <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>0.00662226931795737</v>
+        <v>0.00661987101204765</v>
       </c>
       <c r="H129" t="n">
-        <v>0.014808065176863</v>
+        <v>0.0148042389171223</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0223887497207494</v>
+        <v>0.0223974001080875</v>
       </c>
       <c r="J129" t="n">
-        <v>0.020150537586317</v>
+        <v>0.0319144842248978</v>
       </c>
     </row>
     <row r="130">
@@ -31684,16 +31684,16 @@
         <v>4</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00624265826952852</v>
+        <v>0.00624804294046252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.013959216409606</v>
+        <v>0.013972707366459</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0211053502776826</v>
+        <v>0.0211393722589717</v>
       </c>
       <c r="J130" t="n">
-        <v>0.018995440091444</v>
+        <v>0.0301218962570384</v>
       </c>
     </row>
     <row r="131">
@@ -31716,16 +31716,16 @@
         <v>4</v>
       </c>
       <c r="G131" t="n">
-        <v>0.00619881814623888</v>
+        <v>0.00620979823994383</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0138611854519592</v>
+        <v>0.0138871794637609</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0209571343865837</v>
+        <v>0.0210099767076124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0188620414013997</v>
+        <v>0.0299375180585556</v>
       </c>
     </row>
     <row r="132">
@@ -31748,16 +31748,16 @@
         <v>4</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00674982499000861</v>
+        <v>0.00674489502792748</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0150932925837719</v>
+        <v>0.0150838343047204</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0228199934349356</v>
+        <v>0.0228204012363096</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0205386696964151</v>
+        <v>0.032517226631097</v>
       </c>
     </row>
     <row r="133">
@@ -31780,16 +31780,16 @@
         <v>4</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00658746572802333</v>
+        <v>0.00658592348231955</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0147302408233993</v>
+        <v>0.0147283209211634</v>
       </c>
       <c r="I133" t="n">
-        <v>0.022271084789439</v>
+        <v>0.0222825434281586</v>
       </c>
       <c r="J133" t="n">
-        <v>0.020044635664569</v>
+        <v>0.031750822742671</v>
       </c>
     </row>
     <row r="134">
@@ -31812,16 +31812,16 @@
         <v>4</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00631489987401918</v>
+        <v>0.00631886410202381</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0141207559569147</v>
+        <v>0.0141310870983652</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0213495866753146</v>
+        <v>0.0213789856726955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0192152600801355</v>
+        <v>0.0304633259977876</v>
       </c>
     </row>
     <row r="135">
@@ -31844,16 +31844,16 @@
         <v>4</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00559290490406598</v>
+        <v>0.00620459859177297</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0125063020500881</v>
+        <v>0.0138755513166767</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0189086462807448</v>
+        <v>0.0209923844312233</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0170183414589427</v>
+        <v>0.0299124504871147</v>
       </c>
     </row>
     <row r="136">
@@ -31876,16 +31876,16 @@
         <v>4</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00724955397794806</v>
+        <v>0.00723371562067772</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0162107372343705</v>
+        <v>0.0161770001427728</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0245094909020412</v>
+        <v>0.024474256783793</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0220592674357943</v>
+        <v>0.0348738370647053</v>
       </c>
     </row>
     <row r="137">
@@ -31908,16 +31908,16 @@
         <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00658040941452746</v>
+        <v>0.00657901260492721</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147144621914624</v>
+        <v>0.0147128658949466</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0222472286112582</v>
+        <v>0.0222591614489973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0200231643979242</v>
+        <v>0.0317175053129028</v>
       </c>
     </row>
     <row r="138">
@@ -31940,16 +31940,16 @@
         <v>4</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00727506724737916</v>
+        <v>0.00699471259116748</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0162677874898753</v>
+        <v>0.0156425096754592</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0245957468630155</v>
+        <v>0.0236656237350155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0221369003543509</v>
+        <v>0.0337216003517655</v>
       </c>
     </row>
     <row r="139">
@@ -31972,16 +31972,16 @@
         <v>4</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00682870628080553</v>
+        <v>0.0068221021577917</v>
       </c>
       <c r="H139" t="n">
-        <v>0.015269679142408</v>
+        <v>0.0152564951910935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0230866774661201</v>
+        <v>0.0230816206733075</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0207786932198847</v>
+        <v>0.0328894432080691</v>
       </c>
     </row>
     <row r="140">
@@ -32004,16 +32004,16 @@
         <v>4</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0059127075373472</v>
+        <v>0.00592436425184492</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0132214131411636</v>
+        <v>0.0132488538910733</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0199898437936812</v>
+        <v>0.0200442510576317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0179914512303412</v>
+        <v>0.0285614370905347</v>
       </c>
     </row>
     <row r="141">
@@ -32036,16 +32036,16 @@
         <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00663497669530849</v>
+        <v>0.00663245128984739</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0148364801601576</v>
+        <v>0.0148323726130587</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0224317111705881</v>
+        <v>0.022439963704091</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0201892041630814</v>
+        <v>0.0319751339077472</v>
       </c>
     </row>
   </sheetData>
@@ -35474,16 +35474,16 @@
         <v>4</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00667157163564096</v>
+        <v>0.00666794872987283</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0149183101546154</v>
+        <v>0.0149117567252455</v>
       </c>
       <c r="I107" t="n">
-        <v>0.022555432348452</v>
+        <v>0.0225600642869597</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0203005568860278</v>
+        <v>0.0321462675276703</v>
       </c>
     </row>
     <row r="108">
@@ -35506,16 +35506,16 @@
         <v>4</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00531025808134097</v>
+        <v>0.00534562867992784</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0118742751161191</v>
+        <v>0.0119546081782935</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0179530661511063</v>
+        <v>0.0180861808569556</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0161582910515199</v>
+        <v>0.0257713453732307</v>
       </c>
     </row>
     <row r="109">
@@ -35538,16 +35538,16 @@
         <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00722388797732029</v>
+        <v>0.00720389473644178</v>
       </c>
       <c r="H109" t="n">
-        <v>0.016153345456435</v>
+        <v>0.0161103107021258</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0244227185832487</v>
+        <v>0.0243733620269928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.021981169779914</v>
+        <v>0.0347300701940535</v>
       </c>
     </row>
     <row r="110">
@@ -35570,16 +35570,16 @@
         <v>4</v>
       </c>
       <c r="G110" t="n">
-        <v>0.00758211225905405</v>
+        <v>0.00754677891234515</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0169543712464107</v>
+        <v>0.016877114050973</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0256338130589572</v>
+        <v>0.0255334622864183</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0230711906635156</v>
+        <v>0.0363831192644841</v>
       </c>
     </row>
     <row r="111">
@@ -35602,16 +35602,16 @@
         <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00625741252328824</v>
+        <v>0.00626497586508583</v>
       </c>
       <c r="H111" t="n">
-        <v>0.013992208415944</v>
+        <v>0.0140105750320423</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0211552318634175</v>
+        <v>0.0211966624217404</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190403349953914</v>
+        <v>0.0302035301068201</v>
       </c>
     </row>
     <row r="112">
@@ -35634,16 +35634,16 @@
         <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00647316237489268</v>
+        <v>0.00647490232551526</v>
       </c>
       <c r="H112" t="n">
-        <v>0.014474646944349</v>
+        <v>0.0144800405955808</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0218846448784941</v>
+        <v>0.02190691899909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0196968283038421</v>
+        <v>0.0312155883021491</v>
       </c>
     </row>
     <row r="113">
@@ -35666,16 +35666,16 @@
         <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0065174116837654</v>
+        <v>0.00651866656327227</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0145735928824192</v>
+        <v>0.014577912023982</v>
       </c>
       <c r="I113" t="n">
-        <v>0.022034244155434</v>
+        <v>0.0220549891263909</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0198314720820996</v>
+        <v>0.0314265762614264</v>
       </c>
     </row>
     <row r="114">
@@ -35698,16 +35698,16 @@
         <v>4</v>
       </c>
       <c r="G114" t="n">
-        <v>0.00596898349030647</v>
+        <v>0.00598401718579155</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0133472518739755</v>
+        <v>0.0133822577420918</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0201801030787702</v>
+        <v>0.0202460783480415</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0181626902197064</v>
+        <v>0.0288490246607371</v>
       </c>
     </row>
     <row r="115">
@@ -35730,16 +35730,16 @@
         <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>0.00599095618176181</v>
+        <v>0.00600543379624916</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0133963850383879</v>
+        <v>0.0134301524242439</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0202543889566265</v>
+        <v>0.0203185384295907</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0182295497090725</v>
+        <v>0.0289522744182258</v>
       </c>
     </row>
     <row r="116">
@@ -35762,16 +35762,16 @@
         <v>4</v>
       </c>
       <c r="G116" t="n">
-        <v>0.00605298387681116</v>
+        <v>0.00606825036302494</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0135350852492915</v>
+        <v>0.0135706312131522</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0204640938891107</v>
+        <v>0.0205310694255773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0184182903567981</v>
+        <v>0.0292551139034332</v>
       </c>
     </row>
     <row r="117">
@@ -35794,16 +35794,16 @@
         <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0061577585446484</v>
+        <v>0.00616794436683514</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0137693720225598</v>
+        <v>0.0137935802477066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0208183189594988</v>
+        <v>0.0208683700297206</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0187371034072766</v>
+        <v>0.0297357399920877</v>
       </c>
     </row>
     <row r="118">
@@ -35826,16 +35826,16 @@
         <v>4</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00644619427057485</v>
+        <v>0.00644867286329013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0144143435306307</v>
+        <v>0.0144213827720762</v>
       </c>
       <c r="I118" t="n">
-        <v>0.021793470371837</v>
+        <v>0.0218181753122407</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0196147685485534</v>
+        <v>0.0310891357237095</v>
       </c>
     </row>
     <row r="119">
@@ -35858,16 +35858,16 @@
         <v>4</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0063802095159529</v>
+        <v>0.00638448254823254</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0142667949335853</v>
+        <v>0.0142778318239461</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0215703873038304</v>
+        <v>0.0216009964326533</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0194139871827868</v>
+        <v>0.0307796733801731</v>
       </c>
     </row>
     <row r="120">
@@ -35890,16 +35890,16 @@
         <v>4</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00673429140318136</v>
+        <v>0.00672872448380739</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0150585579097312</v>
+        <v>0.015047671576151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0227674770585935</v>
+        <v>0.022765690480471</v>
       </c>
       <c r="J120" t="n">
-        <v>0.020491403402916</v>
+        <v>0.0324392682276343</v>
       </c>
     </row>
     <row r="121">
@@ -35922,16 +35922,16 @@
         <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>0.00636715211433621</v>
+        <v>0.0063730543989205</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0142375972605677</v>
+        <v>0.0142522746714747</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0215262424823556</v>
+        <v>0.0215623309009276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0193742555365151</v>
+        <v>0.0307245781237436</v>
       </c>
     </row>
     <row r="122">
@@ -35954,16 +35954,16 @@
         <v>4</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00664053380653635</v>
+        <v>0.00663762233691475</v>
       </c>
       <c r="H122" t="n">
-        <v>0.014848906423921</v>
+        <v>0.0148439367985387</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0224504988046267</v>
+        <v>0.0224574592126794</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0202061135899398</v>
+        <v>0.0320000635928962</v>
       </c>
     </row>
     <row r="123">
@@ -35986,16 +35986,16 @@
         <v>4</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00587901104892184</v>
+        <v>0.00589925030611245</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0131460643788472</v>
+        <v>0.0131926907344047</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0198759217815127</v>
+        <v>0.0199592815635374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0178889180466332</v>
+        <v>0.0284403624316108</v>
       </c>
     </row>
     <row r="124">
@@ -36018,16 +36018,16 @@
         <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>0.00543193031542757</v>
+        <v>0.00546421439551116</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0121463465596171</v>
+        <v>0.0122198053796375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0183644189768729</v>
+        <v>0.0184873989039825</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0165285207731539</v>
+        <v>0.0263430486499855</v>
       </c>
     </row>
     <row r="125">
@@ -36050,16 +36050,16 @@
         <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>0.00626013305688042</v>
+        <v>0.00626762420202801</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0139982918047062</v>
+        <v>0.0140164975965083</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0211644295179944</v>
+        <v>0.021205622696345</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0190486131568149</v>
+        <v>0.0302162977736537</v>
       </c>
     </row>
     <row r="126">
@@ -36082,16 +36082,16 @@
         <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>0.00695266475840527</v>
+        <v>0.00694077758370385</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0155468628580482</v>
+        <v>0.0155218930146458</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0235057596866544</v>
+        <v>0.023483142242582</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0211558796256448</v>
+        <v>0.0334615789794857</v>
       </c>
     </row>
     <row r="127">
@@ -36114,16 +36114,16 @@
         <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>0.00653986632729814</v>
+        <v>0.00622612701847907</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0146238037405089</v>
+        <v>0.0139236960572444</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0221101594300906</v>
+        <v>0.0210652228272822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0198997980768258</v>
+        <v>0.0300162393121913</v>
       </c>
     </row>
     <row r="128">
@@ -36146,16 +36146,16 @@
         <v>4</v>
       </c>
       <c r="G128" t="n">
-        <v>0.00627010649840049</v>
+        <v>0.0062789529881749</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0140205934304746</v>
+        <v>0.0140418325398107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0211981480025994</v>
+        <v>0.0212439520468126</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0190789607912233</v>
+        <v>0.0302709139989721</v>
       </c>
     </row>
     <row r="129">
@@ -36178,16 +36178,16 @@
         <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>0.00662226931795737</v>
+        <v>0.00661987101204765</v>
       </c>
       <c r="H129" t="n">
-        <v>0.014808065176863</v>
+        <v>0.0148042389171223</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0223887497207494</v>
+        <v>0.0223974001080875</v>
       </c>
       <c r="J129" t="n">
-        <v>0.020150537586317</v>
+        <v>0.0319144842248978</v>
       </c>
     </row>
     <row r="130">
@@ -36210,16 +36210,16 @@
         <v>4</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00624265826952852</v>
+        <v>0.00624804294046252</v>
       </c>
       <c r="H130" t="n">
-        <v>0.013959216409606</v>
+        <v>0.013972707366459</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0211053502776826</v>
+        <v>0.0211393722589717</v>
       </c>
       <c r="J130" t="n">
-        <v>0.018995440091444</v>
+        <v>0.0301218962570384</v>
       </c>
     </row>
     <row r="131">
@@ -36242,16 +36242,16 @@
         <v>4</v>
       </c>
       <c r="G131" t="n">
-        <v>0.00619881814623888</v>
+        <v>0.00620979823994383</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0138611854519592</v>
+        <v>0.0138871794637609</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0209571343865837</v>
+        <v>0.0210099767076124</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0188620414013997</v>
+        <v>0.0299375180585556</v>
       </c>
     </row>
     <row r="132">
@@ -36274,16 +36274,16 @@
         <v>4</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00674982499000861</v>
+        <v>0.00674489502792748</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0150932925837719</v>
+        <v>0.0150838343047204</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0228199934349356</v>
+        <v>0.0228204012363096</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0205386696964151</v>
+        <v>0.032517226631097</v>
       </c>
     </row>
     <row r="133">
@@ -36306,16 +36306,16 @@
         <v>4</v>
       </c>
       <c r="G133" t="n">
-        <v>0.00658746572802333</v>
+        <v>0.00658592348231955</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0147302408233993</v>
+        <v>0.0147283209211634</v>
       </c>
       <c r="I133" t="n">
-        <v>0.022271084789439</v>
+        <v>0.0222825434281586</v>
       </c>
       <c r="J133" t="n">
-        <v>0.020044635664569</v>
+        <v>0.031750822742671</v>
       </c>
     </row>
     <row r="134">
@@ -36338,16 +36338,16 @@
         <v>4</v>
       </c>
       <c r="G134" t="n">
-        <v>0.00631489987401918</v>
+        <v>0.00631886410202381</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0141207559569147</v>
+        <v>0.0141310870983652</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0213495866753146</v>
+        <v>0.0213789856726955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0192152600801355</v>
+        <v>0.0304633259977876</v>
       </c>
     </row>
     <row r="135">
@@ -36370,16 +36370,16 @@
         <v>4</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00559290490406598</v>
+        <v>0.00620459859177297</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0125063020500881</v>
+        <v>0.0138755513166767</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0189086462807448</v>
+        <v>0.0209923844312233</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0170183414589427</v>
+        <v>0.0299124504871147</v>
       </c>
     </row>
     <row r="136">
@@ -36402,16 +36402,16 @@
         <v>4</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00724955397794806</v>
+        <v>0.00723371562067772</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0162107372343705</v>
+        <v>0.0161770001427728</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0245094909020412</v>
+        <v>0.024474256783793</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0220592674357943</v>
+        <v>0.0348738370647053</v>
       </c>
     </row>
     <row r="137">
@@ -36434,16 +36434,16 @@
         <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00658040941452746</v>
+        <v>0.00657901260492721</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147144621914624</v>
+        <v>0.0147128658949466</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0222472286112582</v>
+        <v>0.0222591614489973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0200231643979242</v>
+        <v>0.0317175053129028</v>
       </c>
     </row>
     <row r="138">
@@ -36466,16 +36466,16 @@
         <v>4</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00727506724737916</v>
+        <v>0.00699471259116748</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0162677874898753</v>
+        <v>0.0156425096754592</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0245957468630155</v>
+        <v>0.0236656237350155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0221369003543509</v>
+        <v>0.0337216003517655</v>
       </c>
     </row>
     <row r="139">
@@ -36498,16 +36498,16 @@
         <v>4</v>
       </c>
       <c r="G139" t="n">
-        <v>0.00682870628080553</v>
+        <v>0.0068221021577917</v>
       </c>
       <c r="H139" t="n">
-        <v>0.015269679142408</v>
+        <v>0.0152564951910935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0230866774661201</v>
+        <v>0.0230816206733075</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0207786932198847</v>
+        <v>0.0328894432080691</v>
       </c>
     </row>
     <row r="140">
@@ -36530,16 +36530,16 @@
         <v>4</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0059127075373472</v>
+        <v>0.00592436425184492</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0132214131411636</v>
+        <v>0.0132488538910733</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0199898437936812</v>
+        <v>0.0200442510576317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0179914512303412</v>
+        <v>0.0285614370905347</v>
       </c>
     </row>
     <row r="141">
@@ -36562,16 +36562,16 @@
         <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00663497669530849</v>
+        <v>0.00663245128984739</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0148364801601576</v>
+        <v>0.0148323726130587</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0224317111705881</v>
+        <v>0.022439963704091</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0201892041630814</v>
+        <v>0.0319751339077472</v>
       </c>
     </row>
   </sheetData>
